--- a/tests/pecha/parser/google_doc/commentary/number_list/data/དབུ་མ་_bo_commentary_metadata.xlsx
+++ b/tests/pecha/parser/google_doc/commentary/number_list/data/དབུ་མ་_bo_commentary_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenzi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tsundue\mywork\toolkit-v2\tests\pecha\parser\google_doc\commentary\number_list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685E0C9-CFED-4321-97E2-BC90C610EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723059D-D8B7-45DA-9144-19E735EFE954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>title_alt_5</t>
-  </si>
-  <si>
-    <t>is_commentary_of</t>
-  </si>
-  <si>
-    <t>is_version_of</t>
   </si>
   <si>
     <t>language</t>
@@ -305,7 +299,13 @@
     <t>http://sakyalibrary.com/Library/Book/432559f1-c671-42c6-ad76-8bd169dca8c2</t>
   </si>
   <si>
-    <t xml:space="preserve">དབུ་མ་འཇུག་པ། </t>
+    <t>commentary_of</t>
+  </si>
+  <si>
+    <t>translation_of</t>
+  </si>
+  <si>
+    <t>I54C654B4</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>79</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="2"/>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -28808,93 +28808,93 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -28904,38 +28904,38 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -28954,13 +28954,13 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -29315,7 +29315,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -29324,7 +29324,7 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -29333,7 +29333,7 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -34496,62 +34496,62 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="34" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="B4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -34752,19 +34752,19 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B57" s="31"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="31"/>
     </row>
@@ -36347,56 +36347,56 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -36593,19 +36593,19 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B57" s="31"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="31"/>
     </row>
